--- a/TotalEarningsData/formatted/Logistic1Earnings.xlsx
+++ b/TotalEarningsData/formatted/Logistic1Earnings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\GitHub\jsr_pigs\TotalEarningsData\formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakebeard/Documents/GitHub/jsr_pigs/TotalEarningsData/formatted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C5165-BC5F-48E3-B43C-8AD66745BB54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD19ECF-9B8B-994D-9F7D-270A90BCA668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>[1, 257]</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>[70, 18000]</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>overweight</t>
   </si>
 </sst>
 </file>
@@ -568,32 +577,32 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -610,7 +619,7 @@
         <v>14906</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -627,7 +636,7 @@
         <v>14649</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -644,7 +653,7 @@
         <v>15420</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -661,7 +670,7 @@
         <v>15420</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -678,7 +687,7 @@
         <v>13878</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -695,7 +704,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -712,7 +721,7 @@
         <v>16456</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -729,7 +738,7 @@
         <v>13884</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -746,7 +755,7 @@
         <v>15426</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -763,7 +772,7 @@
         <v>14140</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -780,7 +789,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -797,7 +806,7 @@
         <v>13368</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -814,7 +823,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -831,7 +840,7 @@
         <v>15428</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -848,7 +857,7 @@
         <v>16456</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -865,7 +874,7 @@
         <v>17484</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -882,7 +891,7 @@
         <v>13884</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -899,7 +908,7 @@
         <v>14657</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -916,7 +925,7 @@
         <v>14379</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -933,7 +942,7 @@
         <v>16201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -950,7 +959,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -967,7 +976,7 @@
         <v>17742</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -984,7 +993,7 @@
         <v>12353</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>19284</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>13370</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>13886</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>14791</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>14914</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>15428</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>15942</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>16471</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>9717</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>17484</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>18514</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>9514</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>9771</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1239,7 +1248,7 @@
         <v>10245</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>21084</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>11057</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>11828</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>12086</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>12430</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>15066</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>25714</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>26228</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>13371</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>13628</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>13885</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>14142</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1528,7 +1537,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>14657</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>14914</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>15171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>15428</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>15685</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>15942</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>16203</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1664,7 +1673,7 @@
         <v>16557</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>17228</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>17485</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>17742</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
